--- a/exam/excel/investment_gdp.xlsx
+++ b/exam/excel/investment_gdp.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>country</t>
   </si>
@@ -51,15 +51,9 @@
     <t>mean_x</t>
   </si>
   <si>
-    <t>diff_mean_x</t>
-  </si>
-  <si>
     <t>mean_y</t>
   </si>
   <si>
-    <t>diff_mean_y</t>
-  </si>
-  <si>
     <t>pop_var_x</t>
   </si>
   <si>
@@ -78,9 +72,6 @@
     <t>x2</t>
   </si>
   <si>
-    <t>diff_mean_product</t>
-  </si>
-  <si>
     <t>mean_xy</t>
   </si>
   <si>
@@ -100,6 +91,33 @@
   </si>
   <si>
     <t>beta0</t>
+  </si>
+  <si>
+    <t>mean_error</t>
+  </si>
+  <si>
+    <t>diff_mean_error_sq</t>
+  </si>
+  <si>
+    <t>diff_mean_y_sq</t>
+  </si>
+  <si>
+    <t>diff_mean_x_sq</t>
+  </si>
+  <si>
+    <t>r_squared</t>
+  </si>
+  <si>
+    <t>1_over_NT</t>
+  </si>
+  <si>
+    <t>var_coefficient</t>
+  </si>
+  <si>
+    <t>s.e.b1</t>
+  </si>
+  <si>
+    <t>hat_sigma_squared</t>
   </si>
 </sst>
 </file>
@@ -397,13 +415,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>238124</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>61911</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>990599</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>85724</xdr:rowOff>
@@ -715,24 +733,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AE25"/>
+  <dimension ref="A2:AK25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="12.140625" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" customWidth="1"/>
-    <col min="19" max="19" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="16.140625" customWidth="1"/>
-    <col min="26" max="26" width="9.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="16.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.5703125" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="16.140625" customWidth="1"/>
+    <col min="32" max="32" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -752,61 +775,79 @@
         <v>5</v>
       </c>
       <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>28</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="U2" t="s">
+        <v>14</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="W2" t="s">
+        <v>16</v>
+      </c>
+      <c r="X2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="M2" t="s">
+      <c r="AA2" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC2" t="s">
         <v>17</v>
       </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="AF2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG2" t="s">
         <v>21</v>
       </c>
-      <c r="S2" t="s">
-        <v>22</v>
-      </c>
-      <c r="T2" t="s">
-        <v>23</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -820,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="E3">
-        <f>$V$3+($U$3*$C3)</f>
+        <f>$AB$3+($AA$3*$C3)</f>
         <v>2.447637722899688</v>
       </c>
       <c r="F3">
@@ -828,99 +869,123 @@
         <v>-2.552362277100312</v>
       </c>
       <c r="G3">
+        <f>AVERAGE(F$3:F$18)</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H3">
+        <f>(F3:F18-G3:G18)^2</f>
+        <v>6.5145531935646899</v>
+      </c>
+      <c r="I3">
+        <f>1/(COUNT($C$3:$C$18)-2)*SUM($H$3:$H$18)</f>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J3">
+        <f>1/COUNT($C$3:$C$18)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K3">
+        <f>$I3/SUM($Q$3:$Q$18)</f>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L3">
+        <f>SQRT(K3)</f>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M3">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N3">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H3">
+      <c r="O3">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I3">
-        <f>(D3-G3)^2</f>
+      <c r="P3">
+        <f>(D3-N3)^2</f>
         <v>1.12890625</v>
       </c>
-      <c r="J3">
-        <f>(C3-H3)^2</f>
+      <c r="Q3">
+        <f>(C3-O3)^2</f>
         <v>19.69140625</v>
       </c>
-      <c r="K3">
-        <f>SQRT(I3)*SQRT(J3)</f>
-        <v>4.71484375</v>
-      </c>
-      <c r="M3">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S3">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N3">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T3">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O3">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U3">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P3">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V3">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q3">
+      <c r="W3">
         <f>C3*D3</f>
         <v>95</v>
       </c>
-      <c r="R3">
-        <f>AVERAGE(Q$3:Q$18)</f>
+      <c r="X3">
+        <f>AVERAGE(W$3:W$18)</f>
         <v>113.6875</v>
       </c>
-      <c r="S3">
-        <f>G$3*H$3</f>
+      <c r="Y3">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T3">
-        <f>AVERAGE(Q$3:Q$18)-S3</f>
-        <v>21.40234375</v>
-      </c>
-      <c r="U3">
-        <f>(T3/N3)</f>
+      <c r="Z3">
+        <f>AVERAGE(W$3:W$18)-Y3</f>
+        <v>21.40234375</v>
+      </c>
+      <c r="AA3">
+        <f>(Z3/T3)</f>
         <v>0.33574361174091549</v>
       </c>
-      <c r="V3">
-        <f>G3-U3*H3</f>
+      <c r="AB3">
+        <f>N3-AA3*O3</f>
         <v>-3.9314909001777067</v>
       </c>
-      <c r="W3">
+      <c r="AC3">
         <f>C3^2</f>
         <v>361</v>
       </c>
-      <c r="X3">
-        <f>(AVERAGE(Q$3:Q$18)-G3*H3)/(AVERAGE(W$3:W$18)-(G3^2))</f>
+      <c r="AD3">
+        <f>(AVERAGE(W$3:W$18)-N3*O3)/(AVERAGE(AC$3:AC$18)-(N3^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA3">
+      <c r="AG3">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
-      <c r="AB3">
-        <f>AA3/_xlfn.VAR.S(D3:D18)</f>
+      <c r="AH3">
+        <f>AG3/_xlfn.VAR.S(D3:D18)</f>
         <v>2.0198830121903266</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
         <f>_xlfn.VAR.P(C3:C18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="AD3">
-        <f>SUM((C$3:C$18-G$3:G$18)*(D3:D18-H3:H18))</f>
+      <c r="AJ3">
+        <f>SUM((C$3:C$18-N$3:N$18)*(D3:D18-O3:O18))</f>
         <v>-277.71484375</v>
       </c>
-      <c r="AE3">
-        <f>1/COUNT(C3:C18)*K25</f>
-        <v>24.095703125</v>
+      <c r="AK3" t="e">
+        <f>1/COUNT(C3:C18)*#REF!</f>
+        <v>#REF!</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -934,87 +999,111 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E18" si="0">$V$3+($U$3*$C4)</f>
+        <f>$AB$3+($AA$3*$C4)</f>
         <v>2.7833813346406036</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F18" si="1">E4-D4</f>
+        <f t="shared" ref="F4:F18" si="0">E4-D4</f>
         <v>0.78338133464060355</v>
       </c>
       <c r="G4">
+        <f t="shared" ref="G4:G18" si="1">AVERAGE(F$3:F$18)</f>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H4">
+        <f t="shared" ref="H4:H18" si="2">(F4:F19-G4:G19)^2</f>
+        <v>0.613686315463293</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I18" si="3">1/(COUNT($C$3:$C$18)-2)*SUM($H$3:$H$18)</f>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ref="J4:J18" si="4">1/COUNT($C$3:$C$18)</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K18" si="5">$I4/SUM($Q$3:$Q$18)</f>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L18" si="6">SQRT(K4)</f>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M4">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N4">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H4">
+      <c r="O4">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I4">
-        <f>(D4-G4)^2</f>
+      <c r="P4">
+        <f>(D4-N4)^2</f>
         <v>3.75390625</v>
       </c>
-      <c r="J4">
-        <f>(C4-H4)^2</f>
+      <c r="Q4">
+        <f>(C4-O4)^2</f>
         <v>11.81640625</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K18" si="2">SQRT(I4)*SQRT(J4)</f>
-        <v>6.66015625</v>
-      </c>
-      <c r="M4">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S4">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N4">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T4">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O4">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U4">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P4">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V4">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q4">
+      <c r="W4">
         <f>C4*D4</f>
         <v>40</v>
       </c>
-      <c r="R4">
-        <f t="shared" ref="R4:R18" si="3">AVERAGE(Q$3:Q$18)</f>
+      <c r="X4">
+        <f t="shared" ref="X4:X18" si="7">AVERAGE(W$3:W$18)</f>
         <v>113.6875</v>
       </c>
-      <c r="S4">
-        <f>G$3*H$3</f>
+      <c r="Y4">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T4">
-        <f t="shared" ref="T4:T18" si="4">AVERAGE(Q$3:Q$18)-S4</f>
-        <v>21.40234375</v>
-      </c>
-      <c r="W4">
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z18" si="8">AVERAGE(W$3:W$18)-Y4</f>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC4">
         <f>C4^2</f>
         <v>400</v>
       </c>
-      <c r="X4">
-        <f>(AVERAGE(Q$3:Q$18)-G4*H4)/(AVERAGE(W$3:W$18)-(G4^2))</f>
+      <c r="AD4">
+        <f>(AVERAGE(W$3:W$18)-N4*O4)/(AVERAGE(AC$3:AC$18)-(N4^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA4">
+      <c r="AG4">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
-      <c r="AC4">
-        <f>AA3/AC3</f>
+      <c r="AI4">
+        <f>AG3/AI3</f>
         <v>0.33574361174091549</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1028,83 +1117,107 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <f>$AB$3+($AA$3*$C5)</f>
+        <v>3.1191249463815183</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>3.1191249463815183</v>
-      </c>
-      <c r="F5">
+        <v>0.11912494638151827</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="1"/>
-        <v>0.11912494638151827</v>
-      </c>
-      <c r="G5">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>1.419075285039955E-2</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M5">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N5">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H5">
+      <c r="O5">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I5">
-        <f>(D5-G5)^2</f>
+      <c r="P5">
+        <f>(D5-N5)^2</f>
         <v>0.87890625</v>
       </c>
-      <c r="J5">
-        <f>(C5-H5)^2</f>
+      <c r="Q5">
+        <f>(C5-O5)^2</f>
         <v>5.94140625</v>
       </c>
-      <c r="K5">
-        <f t="shared" si="2"/>
-        <v>2.28515625</v>
-      </c>
-      <c r="M5">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S5">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N5">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T5">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O5">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U5">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P5">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V5">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q5">
+      <c r="W5">
         <f>C5*D5</f>
         <v>63</v>
       </c>
-      <c r="R5">
-        <f t="shared" si="3"/>
+      <c r="X5">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S5">
-        <f>G$3*H$3</f>
+      <c r="Y5">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T5">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W5">
+      <c r="Z5">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC5">
         <f>C5^2</f>
         <v>441</v>
       </c>
-      <c r="X5">
-        <f>(AVERAGE(Q$3:Q$18)-G5*H5)/(AVERAGE(W$3:W$18)-(G5^2))</f>
+      <c r="AD5">
+        <f>(AVERAGE(W$3:W$18)-N5*O5)/(AVERAGE(AC$3:AC$18)-(N5^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA5">
+      <c r="AG5">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1118,83 +1231,107 @@
         <v>2</v>
       </c>
       <c r="E6">
+        <f>$AB$3+($AA$3*$C6)</f>
+        <v>2.7833813346406036</v>
+      </c>
+      <c r="F6">
         <f t="shared" si="0"/>
-        <v>2.7833813346406036</v>
-      </c>
-      <c r="F6">
+        <v>0.78338133464060355</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="1"/>
-        <v>0.78338133464060355</v>
-      </c>
-      <c r="G6">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0.613686315463293</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M6">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N6">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H6">
+      <c r="O6">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I6">
-        <f>(D6-G6)^2</f>
+      <c r="P6">
+        <f>(D6-N6)^2</f>
         <v>3.75390625</v>
       </c>
-      <c r="J6">
-        <f>(C6-H6)^2</f>
+      <c r="Q6">
+        <f>(C6-O6)^2</f>
         <v>11.81640625</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="2"/>
-        <v>6.66015625</v>
-      </c>
-      <c r="M6">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S6">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N6">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T6">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O6">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U6">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P6">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V6">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q6">
+      <c r="W6">
         <f>C6*D6</f>
         <v>40</v>
       </c>
-      <c r="R6">
-        <f t="shared" si="3"/>
+      <c r="X6">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S6">
-        <f>G$3*H$3</f>
+      <c r="Y6">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T6">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W6">
+      <c r="Z6">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC6">
         <f>C6^2</f>
         <v>400</v>
       </c>
-      <c r="X6">
-        <f>(AVERAGE(Q$3:Q$18)-G6*H6)/(AVERAGE(W$3:W$18)-(G6^2))</f>
+      <c r="AD6">
+        <f>(AVERAGE(W$3:W$18)-N6*O6)/(AVERAGE(AC$3:AC$18)-(N6^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA6">
+      <c r="AG6">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1208,83 +1345,107 @@
         <v>8</v>
       </c>
       <c r="E7">
+        <f>$AB$3+($AA$3*$C7)</f>
+        <v>7.4837918990134202</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>7.4837918990134202</v>
-      </c>
-      <c r="F7">
+        <v>-0.51620810098657977</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="1"/>
-        <v>-0.51620810098657977</v>
-      </c>
-      <c r="G7">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0.26647080352417118</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M7">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N7">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H7">
+      <c r="O7">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I7">
-        <f>(D7-G7)^2</f>
+      <c r="P7">
+        <f>(D7-N7)^2</f>
         <v>16.50390625</v>
       </c>
-      <c r="J7">
-        <f>(C7-H7)^2</f>
+      <c r="Q7">
+        <f>(C7-O7)^2</f>
         <v>111.56640625</v>
       </c>
-      <c r="K7">
-        <f t="shared" si="2"/>
-        <v>42.91015625</v>
-      </c>
-      <c r="M7">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S7">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N7">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T7">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O7">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U7">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P7">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V7">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q7">
+      <c r="W7">
         <f>C7*D7</f>
         <v>272</v>
       </c>
-      <c r="R7">
-        <f t="shared" si="3"/>
+      <c r="X7">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S7">
-        <f>G$3*H$3</f>
+      <c r="Y7">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T7">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W7">
+      <c r="Z7">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC7">
         <f>C7^2</f>
         <v>1156</v>
       </c>
-      <c r="X7">
-        <f>(AVERAGE(Q$3:Q$18)-G7*H7)/(AVERAGE(W$3:W$18)-(G7^2))</f>
+      <c r="AD7">
+        <f>(AVERAGE(W$3:W$18)-N7*O7)/(AVERAGE(AC$3:AC$18)-(N7^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA7">
+      <c r="AG7">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1298,83 +1459,107 @@
         <v>8</v>
       </c>
       <c r="E8">
+        <f>$AB$3+($AA$3*$C8)</f>
+        <v>7.819535510754335</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>7.819535510754335</v>
-      </c>
-      <c r="F8">
+        <v>-0.18046448924566505</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="1"/>
-        <v>-0.18046448924566505</v>
-      </c>
-      <c r="G8">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>3.2567431878698837E-2</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M8">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N8">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H8">
+      <c r="O8">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I8">
-        <f>(D8-G8)^2</f>
+      <c r="P8">
+        <f>(D8-N8)^2</f>
         <v>16.50390625</v>
       </c>
-      <c r="J8">
-        <f>(C8-H8)^2</f>
+      <c r="Q8">
+        <f>(C8-O8)^2</f>
         <v>133.69140625</v>
       </c>
-      <c r="K8">
-        <f t="shared" si="2"/>
-        <v>46.97265625</v>
-      </c>
-      <c r="M8">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S8">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N8">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T8">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O8">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U8">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P8">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V8">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q8">
+      <c r="W8">
         <f>C8*D8</f>
         <v>280</v>
       </c>
-      <c r="R8">
-        <f t="shared" si="3"/>
+      <c r="X8">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S8">
-        <f>G$3*H$3</f>
+      <c r="Y8">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T8">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W8">
+      <c r="Z8">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC8">
         <f>C8^2</f>
         <v>1225</v>
       </c>
-      <c r="X8">
-        <f>(AVERAGE(Q$3:Q$18)-G8*H8)/(AVERAGE(W$3:W$18)-(G8^2))</f>
+      <c r="AD8">
+        <f>(AVERAGE(W$3:W$18)-N8*O8)/(AVERAGE(AC$3:AC$18)-(N8^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA8">
+      <c r="AG8">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1388,83 +1573,107 @@
         <v>9</v>
       </c>
       <c r="E9">
+        <f>$AB$3+($AA$3*$C9)</f>
+        <v>8.1552791224952514</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>8.1552791224952514</v>
-      </c>
-      <c r="F9">
+        <v>-0.84472087750474856</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="1"/>
-        <v>-0.84472087750474856</v>
-      </c>
-      <c r="G9">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0.71355336089239274</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M9">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N9">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H9">
+      <c r="O9">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I9">
-        <f>(D9-G9)^2</f>
+      <c r="P9">
+        <f>(D9-N9)^2</f>
         <v>25.62890625</v>
       </c>
-      <c r="J9">
-        <f>(C9-H9)^2</f>
+      <c r="Q9">
+        <f>(C9-O9)^2</f>
         <v>157.81640625</v>
       </c>
-      <c r="K9">
-        <f t="shared" si="2"/>
-        <v>63.59765625</v>
-      </c>
-      <c r="M9">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S9">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N9">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T9">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O9">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U9">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P9">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V9">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q9">
+      <c r="W9">
         <f>C9*D9</f>
         <v>324</v>
       </c>
-      <c r="R9">
-        <f t="shared" si="3"/>
+      <c r="X9">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S9">
-        <f>G$3*H$3</f>
+      <c r="Y9">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T9">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W9">
+      <c r="Z9">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC9">
         <f>C9^2</f>
         <v>1296</v>
       </c>
-      <c r="X9">
-        <f>(AVERAGE(Q$3:Q$18)-G9*H9)/(AVERAGE(W$3:W$18)-(G9^2))</f>
+      <c r="AD9">
+        <f>(AVERAGE(W$3:W$18)-N9*O9)/(AVERAGE(AC$3:AC$18)-(N9^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA9">
+      <c r="AG9">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1478,83 +1687,107 @@
         <v>10</v>
       </c>
       <c r="E10">
+        <f>$AB$3+($AA$3*$C10)</f>
+        <v>9.1625099577179974</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="0"/>
-        <v>9.1625099577179974</v>
-      </c>
-      <c r="F10">
+        <v>-0.83749004228200263</v>
+      </c>
+      <c r="G10">
         <f t="shared" si="1"/>
-        <v>-0.83749004228200263</v>
-      </c>
-      <c r="G10">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0.70138957092151089</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M10">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N10">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H10">
+      <c r="O10">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I10">
-        <f>(D10-G10)^2</f>
+      <c r="P10">
+        <f>(D10-N10)^2</f>
         <v>36.75390625</v>
       </c>
-      <c r="J10">
-        <f>(C10-H10)^2</f>
+      <c r="Q10">
+        <f>(C10-O10)^2</f>
         <v>242.19140625</v>
       </c>
-      <c r="K10">
-        <f t="shared" si="2"/>
-        <v>94.34765625</v>
-      </c>
-      <c r="M10">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S10">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N10">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T10">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O10">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U10">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P10">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V10">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q10">
+      <c r="W10">
         <f>C10*D10</f>
         <v>390</v>
       </c>
-      <c r="R10">
-        <f t="shared" si="3"/>
+      <c r="X10">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S10">
-        <f>G$3*H$3</f>
+      <c r="Y10">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T10">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W10">
+      <c r="Z10">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC10">
         <f>C10^2</f>
         <v>1521</v>
       </c>
-      <c r="X10">
-        <f>(AVERAGE(Q$3:Q$18)-G10*H10)/(AVERAGE(W$3:W$18)-(G10^2))</f>
+      <c r="AD10">
+        <f>(AVERAGE(W$3:W$18)-N10*O10)/(AVERAGE(AC$3:AC$18)-(N10^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA10">
+      <c r="AG10">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1568,83 +1801,107 @@
         <v>-1</v>
       </c>
       <c r="E11">
+        <f>$AB$3+($AA$3*$C11)</f>
+        <v>0.76891966419510993</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="0"/>
-        <v>0.76891966419510993</v>
-      </c>
-      <c r="F11">
+        <v>1.7689196641951099</v>
+      </c>
+      <c r="G11">
         <f t="shared" si="1"/>
-        <v>1.7689196641951099</v>
-      </c>
-      <c r="G11">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>3.1290767783761395</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M11">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N11">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H11">
+      <c r="O11">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I11">
-        <f>(D11-G11)^2</f>
+      <c r="P11">
+        <f>(D11-N11)^2</f>
         <v>24.37890625</v>
       </c>
-      <c r="J11">
-        <f>(C11-H11)^2</f>
+      <c r="Q11">
+        <f>(C11-O11)^2</f>
         <v>89.06640625</v>
       </c>
-      <c r="K11">
-        <f t="shared" si="2"/>
-        <v>46.59765625</v>
-      </c>
-      <c r="M11">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S11">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N11">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T11">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O11">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U11">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P11">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V11">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q11">
+      <c r="W11">
         <f>C11*D11</f>
         <v>-14</v>
       </c>
-      <c r="R11">
-        <f t="shared" si="3"/>
+      <c r="X11">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S11">
-        <f>G$3*H$3</f>
+      <c r="Y11">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W11">
+      <c r="Z11">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC11">
         <f>C11^2</f>
         <v>196</v>
       </c>
-      <c r="X11">
-        <f>(AVERAGE(Q$3:Q$18)-G11*H11)/(AVERAGE(W$3:W$18)-(G11^2))</f>
+      <c r="AD11">
+        <f>(AVERAGE(W$3:W$18)-N11*O11)/(AVERAGE(AC$3:AC$18)-(N11^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA11">
+      <c r="AG11">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1658,83 +1915,107 @@
         <v>0</v>
       </c>
       <c r="E12">
+        <f>$AB$3+($AA$3*$C12)</f>
+        <v>1.1046632759360255</v>
+      </c>
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1.1046632759360255</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <f t="shared" si="1"/>
-        <v>1.1046632759360255</v>
-      </c>
-      <c r="G12">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>1.2202809532017111</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M12">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N12">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H12">
+      <c r="O12">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I12">
-        <f>(D12-G12)^2</f>
+      <c r="P12">
+        <f>(D12-N12)^2</f>
         <v>15.50390625</v>
       </c>
-      <c r="J12">
-        <f>(C12-H12)^2</f>
+      <c r="Q12">
+        <f>(C12-O12)^2</f>
         <v>71.19140625</v>
       </c>
-      <c r="K12">
-        <f t="shared" si="2"/>
-        <v>33.22265625</v>
-      </c>
-      <c r="M12">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S12">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N12">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T12">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O12">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U12">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P12">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V12">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q12">
+      <c r="W12">
         <f>C12*D12</f>
         <v>0</v>
       </c>
-      <c r="R12">
-        <f t="shared" si="3"/>
+      <c r="X12">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S12">
-        <f>G$3*H$3</f>
+      <c r="Y12">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W12">
+      <c r="Z12">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC12">
         <f>C12^2</f>
         <v>225</v>
       </c>
-      <c r="X12">
-        <f>(AVERAGE(Q$3:Q$18)-G12*H12)/(AVERAGE(W$3:W$18)-(G12^2))</f>
+      <c r="AD12">
+        <f>(AVERAGE(W$3:W$18)-N12*O12)/(AVERAGE(AC$3:AC$18)-(N12^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA12">
+      <c r="AG12">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1748,83 +2029,107 @@
         <v>4</v>
       </c>
       <c r="E13">
+        <f>$AB$3+($AA$3*$C13)</f>
+        <v>1.7761504994178567</v>
+      </c>
+      <c r="F13">
         <f t="shared" si="0"/>
-        <v>1.7761504994178567</v>
-      </c>
-      <c r="F13">
+        <v>-2.2238495005821433</v>
+      </c>
+      <c r="G13">
         <f t="shared" si="1"/>
-        <v>-2.2238495005821433</v>
-      </c>
-      <c r="G13">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>4.9455066012394484</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M13">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N13">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H13">
+      <c r="O13">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I13">
-        <f>(D13-G13)^2</f>
+      <c r="P13">
+        <f>(D13-N13)^2</f>
         <v>3.90625E-3</v>
       </c>
-      <c r="J13">
-        <f>(C13-H13)^2</f>
+      <c r="Q13">
+        <f>(C13-O13)^2</f>
         <v>41.44140625</v>
       </c>
-      <c r="K13">
-        <f t="shared" si="2"/>
-        <v>0.40234375</v>
-      </c>
-      <c r="M13">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S13">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N13">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T13">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O13">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U13">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P13">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V13">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q13">
+      <c r="W13">
         <f>C13*D13</f>
         <v>68</v>
       </c>
-      <c r="R13">
-        <f t="shared" si="3"/>
+      <c r="X13">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S13">
-        <f>G$3*H$3</f>
+      <c r="Y13">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T13">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W13">
+      <c r="Z13">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC13">
         <f>C13^2</f>
         <v>289</v>
       </c>
-      <c r="X13">
-        <f>(AVERAGE(Q$3:Q$18)-G13*H13)/(AVERAGE(W$3:W$18)-(G13^2))</f>
+      <c r="AD13">
+        <f>(AVERAGE(W$3:W$18)-N13*O13)/(AVERAGE(AC$3:AC$18)-(N13^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA13">
+      <c r="AG13">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1838,83 +2143,107 @@
         <v>3</v>
       </c>
       <c r="E14">
+        <f>$AB$3+($AA$3*$C14)</f>
+        <v>1.7761504994178567</v>
+      </c>
+      <c r="F14">
         <f t="shared" si="0"/>
-        <v>1.7761504994178567</v>
-      </c>
-      <c r="F14">
+        <v>-1.2238495005821433</v>
+      </c>
+      <c r="G14">
         <f t="shared" si="1"/>
-        <v>-1.2238495005821433</v>
-      </c>
-      <c r="G14">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>1.4978076000751621</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M14">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N14">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H14">
+      <c r="O14">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I14">
-        <f>(D14-G14)^2</f>
+      <c r="P14">
+        <f>(D14-N14)^2</f>
         <v>0.87890625</v>
       </c>
-      <c r="J14">
-        <f>(C14-H14)^2</f>
+      <c r="Q14">
+        <f>(C14-O14)^2</f>
         <v>41.44140625</v>
       </c>
-      <c r="K14">
-        <f t="shared" si="2"/>
-        <v>6.03515625</v>
-      </c>
-      <c r="M14">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S14">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N14">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T14">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O14">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U14">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P14">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V14">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q14">
+      <c r="W14">
         <f>C14*D14</f>
         <v>51</v>
       </c>
-      <c r="R14">
-        <f t="shared" si="3"/>
+      <c r="X14">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S14">
-        <f>G$3*H$3</f>
+      <c r="Y14">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T14">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W14">
+      <c r="Z14">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC14">
         <f>C14^2</f>
         <v>289</v>
       </c>
-      <c r="X14">
-        <f>(AVERAGE(Q$3:Q$18)-G14*H14)/(AVERAGE(W$3:W$18)-(G14^2))</f>
+      <c r="AD14">
+        <f>(AVERAGE(W$3:W$18)-N14*O14)/(AVERAGE(AC$3:AC$18)-(N14^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA14">
+      <c r="AG14">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1928,83 +2257,107 @@
         <v>4</v>
       </c>
       <c r="E15">
+        <f>$AB$3+($AA$3*$C15)</f>
+        <v>3.4548685581224339</v>
+      </c>
+      <c r="F15">
         <f t="shared" si="0"/>
-        <v>3.4548685581224339</v>
-      </c>
-      <c r="F15">
+        <v>-0.54513144187756613</v>
+      </c>
+      <c r="G15">
         <f t="shared" si="1"/>
-        <v>-0.54513144187756613</v>
-      </c>
-      <c r="G15">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0.29716828892351449</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M15">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N15">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H15">
+      <c r="O15">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I15">
-        <f>(D15-G15)^2</f>
+      <c r="P15">
+        <f>(D15-N15)^2</f>
         <v>3.90625E-3</v>
       </c>
-      <c r="J15">
-        <f>(C15-H15)^2</f>
+      <c r="Q15">
+        <f>(C15-O15)^2</f>
         <v>2.06640625</v>
       </c>
-      <c r="K15">
-        <f t="shared" si="2"/>
-        <v>8.984375E-2</v>
-      </c>
-      <c r="M15">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S15">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N15">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T15">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O15">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U15">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P15">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V15">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q15">
+      <c r="W15">
         <f>C15*D15</f>
         <v>88</v>
       </c>
-      <c r="R15">
-        <f t="shared" si="3"/>
+      <c r="X15">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S15">
-        <f>G$3*H$3</f>
+      <c r="Y15">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T15">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W15">
+      <c r="Z15">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC15">
         <f>C15^2</f>
         <v>484</v>
       </c>
-      <c r="X15">
-        <f>(AVERAGE(Q$3:Q$18)-G15*H15)/(AVERAGE(W$3:W$18)-(G15^2))</f>
+      <c r="AD15">
+        <f>(AVERAGE(W$3:W$18)-N15*O15)/(AVERAGE(AC$3:AC$18)-(N15^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA15">
+      <c r="AG15">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -2018,83 +2371,107 @@
         <v>1</v>
       </c>
       <c r="E16">
+        <f>$AB$3+($AA$3*$C16)</f>
+        <v>5.8050738403088431</v>
+      </c>
+      <c r="F16">
         <f t="shared" si="0"/>
-        <v>5.8050738403088431</v>
-      </c>
-      <c r="F16">
+        <v>4.8050738403088431</v>
+      </c>
+      <c r="G16">
         <f t="shared" si="1"/>
-        <v>4.8050738403088431</v>
-      </c>
-      <c r="G16">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>23.088734610820374</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M16">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N16">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H16">
+      <c r="O16">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I16">
-        <f>(D16-G16)^2</f>
+      <c r="P16">
+        <f>(D16-N16)^2</f>
         <v>8.62890625</v>
       </c>
-      <c r="J16">
-        <f>(C16-H16)^2</f>
+      <c r="Q16">
+        <f>(C16-O16)^2</f>
         <v>30.94140625</v>
       </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>16.33984375</v>
-      </c>
-      <c r="M16">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S16">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N16">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T16">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O16">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U16">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P16">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V16">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q16">
+      <c r="W16">
         <f>C16*D16</f>
         <v>29</v>
       </c>
-      <c r="R16">
-        <f t="shared" si="3"/>
+      <c r="X16">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S16">
-        <f>G$3*H$3</f>
+      <c r="Y16">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T16">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W16">
+      <c r="Z16">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC16">
         <f>C16^2</f>
         <v>841</v>
       </c>
-      <c r="X16">
-        <f>(AVERAGE(Q$3:Q$18)-G16*H16)/(AVERAGE(W$3:W$18)-(G16^2))</f>
+      <c r="AD16">
+        <f>(AVERAGE(W$3:W$18)-N16*O16)/(AVERAGE(AC$3:AC$18)-(N16^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA16">
+      <c r="AG16">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -2108,83 +2485,107 @@
         <v>2</v>
       </c>
       <c r="E17">
+        <f>$AB$3+($AA$3*$C17)</f>
+        <v>2.1118941111587723</v>
+      </c>
+      <c r="F17">
         <f t="shared" si="0"/>
-        <v>2.1118941111587723</v>
-      </c>
-      <c r="F17">
+        <v>0.11189411115877235</v>
+      </c>
+      <c r="G17">
         <f t="shared" si="1"/>
-        <v>0.11189411115877235</v>
-      </c>
-      <c r="G17">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>1.2520292112011652E-2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M17">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N17">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H17">
+      <c r="O17">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I17">
-        <f>(D17-G17)^2</f>
+      <c r="P17">
+        <f>(D17-N17)^2</f>
         <v>3.75390625</v>
       </c>
-      <c r="J17">
-        <f>(C17-H17)^2</f>
+      <c r="Q17">
+        <f>(C17-O17)^2</f>
         <v>29.56640625</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="2"/>
-        <v>10.53515625</v>
-      </c>
-      <c r="M17">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S17">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N17">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T17">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O17">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U17">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P17">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V17">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q17">
+      <c r="W17">
         <f>C17*D17</f>
         <v>36</v>
       </c>
-      <c r="R17">
-        <f t="shared" si="3"/>
+      <c r="X17">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S17">
-        <f>G$3*H$3</f>
+      <c r="Y17">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T17">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W17">
+      <c r="Z17">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC17">
         <f>C17^2</f>
         <v>324</v>
       </c>
-      <c r="X17">
-        <f>(AVERAGE(Q$3:Q$18)-G17*H17)/(AVERAGE(W$3:W$18)-(G17^2))</f>
+      <c r="AD17">
+        <f>(AVERAGE(W$3:W$18)-N17*O17)/(AVERAGE(AC$3:AC$18)-(N17^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA17">
+      <c r="AG17">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -2198,93 +2599,113 @@
         <v>3</v>
       </c>
       <c r="E18">
+        <f>$AB$3+($AA$3*$C18)</f>
+        <v>2.447637722899688</v>
+      </c>
+      <c r="F18">
         <f t="shared" si="0"/>
-        <v>2.447637722899688</v>
-      </c>
-      <c r="F18">
+        <v>-0.55236227710031205</v>
+      </c>
+      <c r="G18">
         <f t="shared" si="1"/>
-        <v>-0.55236227710031205</v>
-      </c>
-      <c r="G18">
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0.30510408516344217</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>3.1404497824621611</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>3.0790610037008748E-3</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>5.5489287287735771E-2</v>
+      </c>
+      <c r="M18">
+        <f>1-($I$3:$I$18/$S$3:$S$18)</f>
+        <v>0.68385562551698253</v>
+      </c>
+      <c r="N18">
         <f>SUM(D$3:D$18)/COUNT(D$3:D$18)</f>
         <v>3.9375</v>
       </c>
-      <c r="H18">
+      <c r="O18">
         <f>SUM(C$3:C$18)/COUNT(C$3:C$18)</f>
         <v>23.4375</v>
       </c>
-      <c r="I18">
-        <f>(D18-G18)^2</f>
+      <c r="P18">
+        <f>(D18-N18)^2</f>
         <v>0.87890625</v>
       </c>
-      <c r="J18">
-        <f>(C18-H18)^2</f>
+      <c r="Q18">
+        <f>(C18-O18)^2</f>
         <v>19.69140625</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="2"/>
-        <v>4.16015625</v>
-      </c>
-      <c r="M18">
-        <f>SUM(I$3:I$18)/COUNT(I$3:I$18)</f>
+      <c r="S18">
+        <f>SUM(P$3:P$18)/COUNT(P$3:P$18)</f>
         <v>9.93359375</v>
       </c>
-      <c r="N18">
-        <f>SUM(J$3:J$18)/COUNT(J$3:J$18)</f>
+      <c r="T18">
+        <f>SUM(Q$3:Q$18)/COUNT(Q$3:Q$18)</f>
         <v>63.74609375</v>
       </c>
-      <c r="O18">
-        <f>SUM(I$3:I$18)/(COUNT(I$3:I$18)-1)</f>
+      <c r="U18">
+        <f>SUM(P$3:P$18)/(COUNT(P$3:P$18)-1)</f>
         <v>10.595833333333333</v>
       </c>
-      <c r="P18">
-        <f>SUM(J$3:J$18)/(COUNT(J$3:J$18)-1)</f>
+      <c r="V18">
+        <f>SUM(Q$3:Q$18)/(COUNT(Q$3:Q$18)-1)</f>
         <v>67.995833333333337</v>
       </c>
-      <c r="Q18">
+      <c r="W18">
         <f>C18*D18</f>
         <v>57</v>
       </c>
-      <c r="R18">
-        <f t="shared" si="3"/>
+      <c r="X18">
+        <f t="shared" si="7"/>
         <v>113.6875</v>
       </c>
-      <c r="S18">
-        <f>G$3*H$3</f>
+      <c r="Y18">
+        <f>N$3*O$3</f>
         <v>92.28515625</v>
       </c>
-      <c r="T18">
-        <f t="shared" si="4"/>
-        <v>21.40234375</v>
-      </c>
-      <c r="W18">
+      <c r="Z18">
+        <f t="shared" si="8"/>
+        <v>21.40234375</v>
+      </c>
+      <c r="AC18">
         <f>C18^2</f>
         <v>361</v>
       </c>
-      <c r="X18">
-        <f>(AVERAGE(Q$3:Q$18)-G18*H18)/(AVERAGE(W$3:W$18)-(G18^2))</f>
+      <c r="AD18">
+        <f>(AVERAGE(W$3:W$18)-N18*O18)/(AVERAGE(AC$3:AC$18)-(N18^2))</f>
         <v>3.5816309854551399E-2</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <f>_xlfn.COVARIANCE.S($C$3:$C$18,$D$3:$D$18)</f>
         <v>22.829166666666666</v>
       </c>
-      <c r="AA18">
+      <c r="AG18">
         <f>_xlfn.COVARIANCE.P($C$3:$C$18,$D$3:$D$18)</f>
         <v>21.40234375</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I25" t="e">
-        <f>SUM(I3:I18*J3:J18)</f>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="P25" t="e">
+        <f>SUM(P3:P18*Q3:Q18)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="K25">
-        <f>SUM(K3:K18)</f>
-        <v>385.53125</v>
-      </c>
-      <c r="N25" t="e">
-        <f>#REF!/M3</f>
+      <c r="T25" t="e">
+        <f>#REF!/S3</f>
         <v>#REF!</v>
       </c>
     </row>
